--- a/Pokemon/配置文件/1.配置文件/1.1/dungeon_chapter_info.xlsx
+++ b/Pokemon/配置文件/1.配置文件/1.1/dungeon_chapter_info.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SVN\Pokemon\配置文件\1.配置文件\1.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2895" yWindow="0" windowWidth="20745" windowHeight="14415"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="288">
   <si>
     <t>章节ID</t>
   </si>
@@ -180,567 +185,750 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>琦玉老师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>螃蟹怪人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械人和蚊女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进化之家</t>
-  </si>
-  <si>
-    <t>桃源团</t>
-  </si>
-  <si>
-    <t>英雄考试及活动</t>
-  </si>
-  <si>
-    <t>夏天的回忆</t>
-  </si>
-  <si>
-    <t>幽灵都市传说</t>
-  </si>
-  <si>
-    <t>巨大陨石</t>
-  </si>
-  <si>
-    <t>深海之王上</t>
-  </si>
-  <si>
-    <t>深海之王下</t>
-  </si>
-  <si>
-    <t>孤独的午餐</t>
-  </si>
-  <si>
-    <t>奇袭梅怪人</t>
-  </si>
-  <si>
-    <t>猫怪古力斯尼亚</t>
-  </si>
-  <si>
-    <t>A级赏金犯牛牛</t>
-  </si>
-  <si>
-    <t>地底之王</t>
-  </si>
-  <si>
-    <t>天空之王</t>
-  </si>
-  <si>
-    <t>吹雪组</t>
-  </si>
-  <si>
-    <t>性感囚犯</t>
-  </si>
-  <si>
-    <t>背心尊者</t>
-  </si>
-  <si>
-    <t>风扇怪人</t>
-  </si>
-  <si>
-    <t>银色獠牙</t>
-  </si>
-  <si>
-    <t>金属球棒</t>
-  </si>
-  <si>
-    <t>十七万年蝉</t>
-  </si>
-  <si>
-    <t>居合钢</t>
-  </si>
-  <si>
-    <t>原子武士</t>
-  </si>
-  <si>
-    <t>小龙卷</t>
-  </si>
-  <si>
-    <t>英雄协会会议</t>
-  </si>
-  <si>
-    <t>外星人入侵上</t>
-  </si>
-  <si>
-    <t>外星人入侵中</t>
-  </si>
-  <si>
-    <t>外星人入侵下</t>
-  </si>
-  <si>
-    <t>外星王波罗斯</t>
-  </si>
-  <si>
-    <t>最强男人传说</t>
-  </si>
-  <si>
-    <t>迷路猫咪</t>
-  </si>
-  <si>
-    <t>龙虾火锅</t>
-  </si>
-  <si>
-    <t>想当怪人的男人</t>
-  </si>
-  <si>
-    <t>制服大赛</t>
-  </si>
-  <si>
-    <t>丑女人面具</t>
-  </si>
-  <si>
-    <t>魔鬼改造人</t>
-  </si>
-  <si>
-    <t>机神G4</t>
-  </si>
-  <si>
-    <t>背心尊者的训练</t>
-  </si>
-  <si>
-    <t>闪光弗莱士</t>
-  </si>
-  <si>
-    <t>警犬侠的追踪</t>
-  </si>
-  <si>
-    <t>贪吃的猪神</t>
-  </si>
-  <si>
-    <t>驱动骑士</t>
-  </si>
-  <si>
-    <t>僵尸男</t>
-  </si>
-  <si>
-    <t>KING的传说</t>
-  </si>
-  <si>
-    <t>金属骑士</t>
-  </si>
-  <si>
-    <t>天才童帝</t>
-  </si>
-  <si>
-    <t>传奇的武士</t>
-  </si>
-  <si>
-    <t>战栗的龙卷风</t>
-  </si>
-  <si>
-    <t>正义的无证骑士</t>
-  </si>
-  <si>
-    <t>坚硬的钉锤头</t>
-  </si>
-  <si>
-    <t>吓尿的大背头侠</t>
-  </si>
-  <si>
-    <t>锋利的海带</t>
-  </si>
-  <si>
-    <t>暴走的阿修罗</t>
-  </si>
-  <si>
-    <t>雷光贤治</t>
-  </si>
-  <si>
-    <t>海比空格</t>
-  </si>
-  <si>
-    <t>偷袭的蛇咬拳</t>
-  </si>
-  <si>
-    <t>与闪电侠切磋</t>
-  </si>
-  <si>
-    <t>魔术妙手</t>
-  </si>
-  <si>
-    <t>大哲人的哲学</t>
-  </si>
-  <si>
-    <t>喝酒的黄金球</t>
-  </si>
-  <si>
-    <t>巴涅西凯的剑</t>
-  </si>
-  <si>
-    <t>青焰的秘密</t>
-  </si>
-  <si>
-    <t>忍者村的忍者</t>
-  </si>
-  <si>
-    <t>重战车兜裆布</t>
-  </si>
-  <si>
-    <t>钻头武士</t>
-  </si>
-  <si>
-    <t>飞舞的太刀</t>
-  </si>
-  <si>
-    <t>甜心大帅哥</t>
-  </si>
-  <si>
-    <t>穿西装的乌马洪</t>
-  </si>
-  <si>
-    <t>吹雪女王</t>
-  </si>
-  <si>
-    <t>吸血蚊女王</t>
-  </si>
-  <si>
-    <t>游戏比赛</t>
-  </si>
-  <si>
-    <t>十字键</t>
-  </si>
-  <si>
-    <t>丧服吊带</t>
-  </si>
-  <si>
-    <t>背心集团</t>
-  </si>
-  <si>
-    <t>银行劫匪</t>
-  </si>
-  <si>
-    <t>桃源团活动</t>
-  </si>
-  <si>
-    <t>进化怪物大战</t>
-  </si>
-  <si>
-    <t>深海一族</t>
-  </si>
-  <si>
-    <t>地底一族</t>
-  </si>
-  <si>
-    <t>天空一族</t>
-  </si>
-  <si>
-    <t>超级大蜈蚣</t>
-  </si>
-  <si>
-    <t>大战波罗斯</t>
-  </si>
-  <si>
-    <t>谣言和小猪银行</t>
-  </si>
-  <si>
-    <t>一击男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三王来袭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪亮的黑光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜心假面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一拳的较量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超人气毒刺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑士居合钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超大巨人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹雪组打工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>敬请期待</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新人进入一拳超人的世界，开始体验英雄活动与冒险……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>路见不平，勇救小孩，打败螃蟹怪人……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>遇见半机械人杰诺斯，与他一起打败了吸血的蚊子女王……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现进化之家消灭人类的阴谋，打败了博士及其手下的改造怪物……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰见四处破坏的桃源团，教育了他们，让他们改邪归正了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加英雄协会的认定考试，还打败了偷袭的蛇咬拳……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灾害来袭，与其他英雄一起平息了十七万年蝉的灾害……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>居住在废弃的城市，使该地区变成了传说中的鬼城……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙级灾害的陨石向地球飞来，被英雄们成功破坏了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被其他无能的家伙嫉妒，但是打破了谣言……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海一族来袭，深海之王太强大了，击败了好几位英雄……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海之王进入避难所，准备大开杀戒之时，被英雄们阻止并击败了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在楼顶吃午餐时，拯救了跳楼的大叔，并使其重新振作起来……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助警察们抵御了前来袭击的奇袭梅怪人……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受英雄协会的特殊委托，找到了小萝莉丢失的猫咪……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A级通缉犯抢劫银行，英雄英勇追击并将他们逮捕了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地底之王带领地底人入侵地上，英雄们出动将他们打败了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天空之王带领族人袭击英雄协会，英雄们出动！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功进阶到B级英雄，吹雪组上门来找麻烦了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A级第一位的英雄甜心假面，据说他的实力远远超过A级！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为最近太受欢迎被基佬性感囚犯看上，该高兴吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与S级英雄背心尊者和他手下的背心小弟们切磋，实力大有长进……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与吹雪组一起出动，对付了灾害风扇怪人……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S级英雄银色獠牙，是一位德高望重的武术大师，这次得到了他的指点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S级英雄金属球棒，是一位超级热血的男子，但同时他又是一位非常疼爱妹妹的哥哥……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再一次与其他英雄们消灭了十七万年蝉……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A级英雄居合钢，是原子武士的弟子……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S级英雄原子武士，虽然打扮过时，但实力却是一流的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超能力者小龙卷，S级英雄，无与伦比的强大，就是性格有点差……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这一次地底王，深海王，天空王联合来袭，英雄们团结一致，终于保卫了家园……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄协会召开会议，发布了“地球要危险了”的大预言……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇宙飞船降临A市，破坏了整个城市，只有英雄协会建筑大楼得以幸免……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打败了宇宙飞船里的三大战斗员中的梅而紫迦德,又打败了格洛里巴斯……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入宇宙飞船，打败了号称宇宙第一的念动力大师：格鲁甘修鲁……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与外星王波罗斯对决，发挥出认真的实力后，终于将其打败……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结交号称地上最强的男人:KING,发现他是个游戏爱好者，一起愉快的打游戏吧（笑）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>历尽千辛万苦，打败了四处破坏的猫怪……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邦古老师请大家吃龙虾大餐，大家顺便帮他处理了前来踢馆的坏人……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叛出流水岩碎流的男人饿狼，走上了怪人的道路，不知以后会怎么样……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜈蚣长老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜈蚣长老带领怪人们袭击都市，与金属球棒一起，用气势赶跑了他们……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加了制服选拔大赛，顺便赶跑了前来捣乱的龟龟柏洛斯……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与金属球棒切磋，学会了在气势上超越对手，实力大涨！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>童帝发明了丑女人面具，可以用来查看他人的实力，真是个有趣的玩意……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杰诺斯君在S级排位又上升了，我们去恭喜他……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>性感囚犯虽然是基佬，但却是一个正直勇敢的基佬……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机神G4获得任务，前来刺杀KING,但被英雄们遇到并打败，任务失败……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背心尊者只相信肌肉的力量，每日重复大量的训练，我们也与他一起吧！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S级英雄闪光弗莱士，外表虽然娘，但实力很强大……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>警犬侠说：汪汪汪……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S级英雄超合金黑光，又是一位肌肉男，他的身体闪烁着耀眼的光芒……（眼已瞎）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外表虽然是贪吃的宅男，但猪神却有作为S级英雄的实力……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的驱动骑士，似乎和金属骑士有说不清的关系，这一次得到他的提醒……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S级英雄僵尸男，有着超强的回复能力，据说是不死的……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KING君其实是个普通人，但是有超强的运势啊，每次都是琦玉老师出现帮他解决怪人……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属骑士其实是远程遥控的机器人，似乎在其身后有另外一股势力……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天才小学生童帝，之前是某位博士的助手，现在成为了S级的英雄。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与原子武士切磋，实力得到了长进……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拜访流水岩碎流的邦古老师，并与他的弟子一起交流了一番……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任性的小龙卷，但她的超能力却无比强大，是个难对付的家伙……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与最强的英雄琦玉较量，如果能让他稍微认真点，就算赢了……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打败了新出现的怪人，这边迎接下一场挑战……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>地图资源链接</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>英雄传id</t>
+  </si>
+  <si>
+    <t>小精灵1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小精灵2</t>
+  </si>
+  <si>
+    <t>小精灵3</t>
+  </si>
+  <si>
+    <t>小精灵4</t>
+  </si>
+  <si>
+    <t>小精灵5</t>
+  </si>
+  <si>
+    <t>小精灵6</t>
+  </si>
+  <si>
+    <t>小精灵7</t>
+  </si>
+  <si>
+    <t>小精灵8</t>
+  </si>
+  <si>
+    <t>小精灵9</t>
+  </si>
+  <si>
+    <t>小精灵10</t>
+  </si>
+  <si>
+    <t>小精灵11</t>
+  </si>
+  <si>
+    <t>小精灵12</t>
+  </si>
+  <si>
+    <t>小精灵13</t>
+  </si>
+  <si>
+    <t>小精灵14</t>
+  </si>
+  <si>
+    <t>小精灵15</t>
+  </si>
+  <si>
+    <t>小精灵16</t>
+  </si>
+  <si>
+    <t>小精灵17</t>
+  </si>
+  <si>
+    <t>小精灵18</t>
+  </si>
+  <si>
+    <t>小精灵19</t>
+  </si>
+  <si>
+    <t>小精灵20</t>
+  </si>
+  <si>
+    <t>小精灵21</t>
+  </si>
+  <si>
+    <t>小精灵22</t>
+  </si>
+  <si>
+    <t>小精灵23</t>
+  </si>
+  <si>
+    <t>小精灵24</t>
+  </si>
+  <si>
+    <t>小精灵25</t>
+  </si>
+  <si>
+    <t>小精灵26</t>
+  </si>
+  <si>
+    <t>小精灵27</t>
+  </si>
+  <si>
+    <t>小精灵28</t>
+  </si>
+  <si>
+    <t>小精灵29</t>
+  </si>
+  <si>
+    <t>小精灵30</t>
+  </si>
+  <si>
+    <t>小精灵31</t>
+  </si>
+  <si>
+    <t>小精灵32</t>
+  </si>
+  <si>
+    <t>小精灵33</t>
+  </si>
+  <si>
+    <t>小精灵34</t>
+  </si>
+  <si>
+    <t>小精灵35</t>
+  </si>
+  <si>
+    <t>小精灵36</t>
+  </si>
+  <si>
+    <t>小精灵37</t>
+  </si>
+  <si>
+    <t>小精灵38</t>
+  </si>
+  <si>
+    <t>小精灵39</t>
+  </si>
+  <si>
+    <t>小精灵40</t>
+  </si>
+  <si>
+    <t>小精灵41</t>
+  </si>
+  <si>
+    <t>小精灵42</t>
+  </si>
+  <si>
+    <t>小精灵43</t>
+  </si>
+  <si>
+    <t>小精灵44</t>
+  </si>
+  <si>
+    <t>小精灵45</t>
+  </si>
+  <si>
+    <t>小精灵46</t>
+  </si>
+  <si>
+    <t>小精灵47</t>
+  </si>
+  <si>
+    <t>小精灵48</t>
+  </si>
+  <si>
+    <t>小精灵49</t>
+  </si>
+  <si>
+    <t>小精灵50</t>
+  </si>
+  <si>
+    <t>小精灵51</t>
+  </si>
+  <si>
+    <t>小精灵52</t>
+  </si>
+  <si>
+    <t>小精灵53</t>
+  </si>
+  <si>
+    <t>小精灵54</t>
+  </si>
+  <si>
+    <t>小精灵55</t>
+  </si>
+  <si>
+    <t>小精灵56</t>
+  </si>
+  <si>
+    <t>小精灵57</t>
+  </si>
+  <si>
+    <t>小精灵58</t>
+  </si>
+  <si>
+    <t>小精灵59</t>
+  </si>
+  <si>
+    <t>小精灵60</t>
+  </si>
+  <si>
+    <t>小精灵61</t>
+  </si>
+  <si>
+    <t>小精灵62</t>
+  </si>
+  <si>
+    <t>小精灵63</t>
+  </si>
+  <si>
+    <t>小精灵64</t>
+  </si>
+  <si>
+    <t>小精灵65</t>
+  </si>
+  <si>
+    <t>小精灵66</t>
+  </si>
+  <si>
+    <t>小精灵67</t>
+  </si>
+  <si>
+    <t>小精灵68</t>
+  </si>
+  <si>
+    <t>小精灵69</t>
+  </si>
+  <si>
+    <t>小精灵70</t>
+  </si>
+  <si>
+    <t>小精灵71</t>
+  </si>
+  <si>
+    <t>小精灵72</t>
+  </si>
+  <si>
+    <t>小精灵73</t>
+  </si>
+  <si>
+    <t>小精灵74</t>
+  </si>
+  <si>
+    <t>小精灵75</t>
+  </si>
+  <si>
+    <t>小精灵76</t>
+  </si>
+  <si>
+    <t>小精灵77</t>
+  </si>
+  <si>
+    <t>小精灵78</t>
+  </si>
+  <si>
+    <t>小精灵79</t>
+  </si>
+  <si>
+    <t>小精灵80</t>
+  </si>
+  <si>
+    <t>小精灵81</t>
+  </si>
+  <si>
+    <t>小精灵82</t>
+  </si>
+  <si>
+    <t>小精灵83</t>
+  </si>
+  <si>
+    <t>小精灵84</t>
+  </si>
+  <si>
+    <t>小精灵85</t>
+  </si>
+  <si>
+    <t>小精灵86</t>
+  </si>
+  <si>
+    <t>小精灵87</t>
+  </si>
+  <si>
+    <t>小精灵88</t>
+  </si>
+  <si>
+    <t>小精灵89</t>
+  </si>
+  <si>
+    <t>小精灵90</t>
+  </si>
+  <si>
+    <t>小精灵91</t>
+  </si>
+  <si>
+    <t>小精灵92</t>
+  </si>
+  <si>
+    <t>小精灵93</t>
+  </si>
+  <si>
+    <t>小精灵94</t>
+  </si>
+  <si>
+    <t>小精灵95</t>
+  </si>
+  <si>
+    <t>小精灵96</t>
+  </si>
+  <si>
+    <t>小精灵97</t>
+  </si>
+  <si>
+    <t>小精灵98</t>
+  </si>
+  <si>
+    <t>小精灵99</t>
+  </si>
+  <si>
+    <t>小精灵100</t>
+  </si>
+  <si>
+    <t>小精灵101</t>
+  </si>
+  <si>
+    <t>小精灵102</t>
+  </si>
+  <si>
+    <t>小精灵103</t>
+  </si>
+  <si>
+    <t>小精灵104</t>
+  </si>
+  <si>
+    <t>小精灵105</t>
+  </si>
+  <si>
+    <t>小精灵106</t>
+  </si>
+  <si>
+    <t>小精灵107</t>
+  </si>
+  <si>
+    <t>小精灵108</t>
+  </si>
+  <si>
+    <t>小精灵109</t>
+  </si>
+  <si>
+    <t>小精灵110</t>
+  </si>
+  <si>
+    <t>小精灵111</t>
+  </si>
+  <si>
+    <t>小精灵112</t>
+  </si>
+  <si>
+    <t>小精灵113</t>
+  </si>
+  <si>
+    <t>小精灵114</t>
+  </si>
+  <si>
+    <t>小精灵115</t>
+  </si>
+  <si>
+    <t>小精灵116</t>
+  </si>
+  <si>
+    <t>小精灵117</t>
+  </si>
+  <si>
+    <t>小精灵118</t>
+  </si>
+  <si>
+    <t>小精灵119</t>
+  </si>
+  <si>
+    <t>小精灵120</t>
+  </si>
+  <si>
+    <t>小精灵121</t>
+  </si>
+  <si>
+    <t>小精灵第1章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小精灵第2章</t>
+  </si>
+  <si>
+    <t>小精灵第3章</t>
+  </si>
+  <si>
+    <t>小精灵第4章</t>
+  </si>
+  <si>
+    <t>小精灵第5章</t>
+  </si>
+  <si>
+    <t>小精灵第6章</t>
+  </si>
+  <si>
+    <t>小精灵第7章</t>
+  </si>
+  <si>
+    <t>小精灵第8章</t>
+  </si>
+  <si>
+    <t>小精灵第9章</t>
+  </si>
+  <si>
+    <t>小精灵第10章</t>
+  </si>
+  <si>
+    <t>小精灵第11章</t>
+  </si>
+  <si>
+    <t>小精灵第12章</t>
+  </si>
+  <si>
+    <t>小精灵第13章</t>
+  </si>
+  <si>
+    <t>小精灵第14章</t>
+  </si>
+  <si>
+    <t>小精灵第15章</t>
+  </si>
+  <si>
+    <t>小精灵第16章</t>
+  </si>
+  <si>
+    <t>小精灵第17章</t>
+  </si>
+  <si>
+    <t>小精灵第18章</t>
+  </si>
+  <si>
+    <t>小精灵第19章</t>
+  </si>
+  <si>
+    <t>小精灵第20章</t>
+  </si>
+  <si>
+    <t>小精灵第21章</t>
+  </si>
+  <si>
+    <t>小精灵第22章</t>
+  </si>
+  <si>
+    <t>小精灵第23章</t>
+  </si>
+  <si>
+    <t>小精灵第24章</t>
+  </si>
+  <si>
+    <t>小精灵第25章</t>
+  </si>
+  <si>
+    <t>小精灵第26章</t>
+  </si>
+  <si>
+    <t>小精灵第27章</t>
+  </si>
+  <si>
+    <t>小精灵第28章</t>
+  </si>
+  <si>
+    <t>小精灵第29章</t>
+  </si>
+  <si>
+    <t>小精灵第30章</t>
+  </si>
+  <si>
+    <t>小精灵第31章</t>
+  </si>
+  <si>
+    <t>小精灵第32章</t>
+  </si>
+  <si>
+    <t>小精灵第33章</t>
+  </si>
+  <si>
+    <t>小精灵第34章</t>
+  </si>
+  <si>
+    <t>小精灵第35章</t>
+  </si>
+  <si>
+    <t>小精灵第36章</t>
+  </si>
+  <si>
+    <t>小精灵第37章</t>
+  </si>
+  <si>
+    <t>小精灵第38章</t>
+  </si>
+  <si>
+    <t>小精灵第39章</t>
+  </si>
+  <si>
+    <t>小精灵第40章</t>
+  </si>
+  <si>
+    <t>小精灵第41章</t>
+  </si>
+  <si>
+    <t>小精灵第42章</t>
+  </si>
+  <si>
+    <t>小精灵第43章</t>
+  </si>
+  <si>
+    <t>小精灵第44章</t>
+  </si>
+  <si>
+    <t>小精灵第45章</t>
+  </si>
+  <si>
+    <t>小精灵第46章</t>
+  </si>
+  <si>
+    <t>小精灵第47章</t>
+  </si>
+  <si>
+    <t>小精灵第48章</t>
+  </si>
+  <si>
+    <t>小精灵第49章</t>
+  </si>
+  <si>
+    <t>小精灵第50章</t>
+  </si>
+  <si>
+    <t>小精灵第51章</t>
+  </si>
+  <si>
+    <t>小精灵第52章</t>
+  </si>
+  <si>
+    <t>小精灵第53章</t>
+  </si>
+  <si>
+    <t>小精灵第54章</t>
+  </si>
+  <si>
+    <t>小精灵第55章</t>
+  </si>
+  <si>
+    <t>小精灵第56章</t>
+  </si>
+  <si>
+    <t>小精灵第57章</t>
+  </si>
+  <si>
+    <t>小精灵第58章</t>
+  </si>
+  <si>
+    <t>小精灵第59章</t>
+  </si>
+  <si>
+    <t>小精灵第60章</t>
+  </si>
+  <si>
+    <t>小精灵第61章</t>
+  </si>
+  <si>
+    <t>小精灵第62章</t>
+  </si>
+  <si>
+    <t>小精灵第63章</t>
+  </si>
+  <si>
+    <t>小精灵第64章</t>
+  </si>
+  <si>
+    <t>小精灵第65章</t>
+  </si>
+  <si>
+    <t>小精灵第66章</t>
+  </si>
+  <si>
+    <t>小精灵第67章</t>
+  </si>
+  <si>
+    <t>小精灵第68章</t>
+  </si>
+  <si>
+    <t>小精灵第69章</t>
+  </si>
+  <si>
+    <t>小精灵第70章</t>
+  </si>
+  <si>
+    <t>小精灵第71章</t>
+  </si>
+  <si>
+    <t>小精灵第72章</t>
+  </si>
+  <si>
+    <t>小精灵第73章</t>
+  </si>
+  <si>
+    <t>小精灵第74章</t>
+  </si>
+  <si>
+    <t>小精灵第75章</t>
+  </si>
+  <si>
+    <t>小精灵第76章</t>
+  </si>
+  <si>
+    <t>小精灵第77章</t>
+  </si>
+  <si>
+    <t>小精灵第78章</t>
+  </si>
+  <si>
+    <t>小精灵第79章</t>
+  </si>
+  <si>
+    <t>小精灵第80章</t>
+  </si>
+  <si>
+    <t>小精灵第81章</t>
+  </si>
+  <si>
+    <t>小精灵第82章</t>
+  </si>
+  <si>
+    <t>小精灵第83章</t>
+  </si>
+  <si>
+    <t>小精灵第84章</t>
+  </si>
+  <si>
+    <t>小精灵第85章</t>
+  </si>
+  <si>
+    <t>小精灵第86章</t>
+  </si>
+  <si>
+    <t>小精灵第87章</t>
+  </si>
+  <si>
+    <t>小精灵第88章</t>
+  </si>
+  <si>
+    <t>小精灵第89章</t>
+  </si>
+  <si>
+    <t>小精灵第90章</t>
+  </si>
+  <si>
+    <t>小精灵第91章</t>
+  </si>
+  <si>
+    <t>小精灵第92章</t>
+  </si>
+  <si>
+    <t>小精灵第93章</t>
+  </si>
+  <si>
+    <t>小精灵第94章</t>
+  </si>
+  <si>
+    <t>小精灵第95章</t>
+  </si>
+  <si>
+    <t>小精灵第96章</t>
+  </si>
+  <si>
+    <t>小精灵第97章</t>
+  </si>
+  <si>
+    <t>小精灵第98章</t>
+  </si>
+  <si>
+    <t>小精灵第99章</t>
+  </si>
+  <si>
+    <t>小精灵第100章</t>
+  </si>
+  <si>
+    <t>小精灵第101章</t>
+  </si>
+  <si>
+    <t>小精灵第102章</t>
+  </si>
+  <si>
+    <t>小精灵第103章</t>
+  </si>
+  <si>
+    <t>小精灵第104章</t>
+  </si>
+  <si>
+    <t>小精灵第105章</t>
+  </si>
+  <si>
+    <t>小精灵第106章</t>
+  </si>
+  <si>
+    <t>小精灵第107章</t>
+  </si>
+  <si>
+    <t>小精灵第108章</t>
+  </si>
+  <si>
+    <t>小精灵第109章</t>
+  </si>
+  <si>
+    <t>小精灵第110章</t>
+  </si>
+  <si>
+    <t>小精灵第111章</t>
+  </si>
+  <si>
+    <t>小精灵第112章</t>
+  </si>
+  <si>
+    <t>小精灵第113章</t>
+  </si>
+  <si>
+    <t>小精灵第114章</t>
+  </si>
+  <si>
+    <t>小精灵第115章</t>
+  </si>
+  <si>
+    <t>小精灵第116章</t>
+  </si>
+  <si>
+    <t>小精灵第117章</t>
+  </si>
+  <si>
+    <t>小精灵第118章</t>
+  </si>
+  <si>
+    <t>小精灵第119章</t>
+  </si>
+  <si>
+    <t>小精灵第120章</t>
+  </si>
+  <si>
+    <t>小精灵第121章</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18445,6 +18633,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -18491,7 +18687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18523,9 +18719,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18557,6 +18754,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -18732,18 +18930,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AD158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="17" style="9" customWidth="1"/>
@@ -18761,13 +18959,13 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:30" ht="13.5">
+    <row r="2" spans="1:30" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -18820,7 +19018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="6" customFormat="1" ht="24">
+    <row r="3" spans="1:30" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -18840,7 +19038,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="H3" s="57" t="s">
         <v>40</v>
@@ -18867,13 +19065,13 @@
         <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -18939,7 +19137,7 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:30" s="4" customFormat="1">
+    <row r="5" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -19005,12 +19203,12 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -19049,7 +19247,7 @@
         <v>23003</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -19058,12 +19256,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -19102,7 +19300,7 @@
         <v>23003</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -19111,12 +19309,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -19155,7 +19353,7 @@
         <v>23006</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="P8" s="5">
         <v>0</v>
@@ -19164,12 +19362,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
@@ -19208,7 +19406,7 @@
         <v>23006</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="P9" s="5">
         <v>0</v>
@@ -19217,12 +19415,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -19261,7 +19459,7 @@
         <v>23009</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
@@ -19270,12 +19468,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -19314,7 +19512,7 @@
         <v>23009</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="P11" s="5">
         <v>0</v>
@@ -19323,12 +19521,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5">
         <v>6</v>
@@ -19367,7 +19565,7 @@
         <v>23012</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="P12" s="5">
         <v>0</v>
@@ -19376,12 +19574,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13" s="7">
         <v>7</v>
@@ -19420,7 +19618,7 @@
         <v>23012</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="P13" s="5">
         <v>1</v>
@@ -19429,12 +19627,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="7">
         <v>8</v>
@@ -19473,7 +19671,7 @@
         <v>23015</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="P14" s="5">
         <v>2</v>
@@ -19482,12 +19680,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="C15" s="5">
         <v>9</v>
@@ -19526,7 +19724,7 @@
         <v>23015</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="P15" s="5">
         <v>3</v>
@@ -19535,12 +19733,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C16" s="7">
         <v>10</v>
@@ -19579,7 +19777,7 @@
         <v>23018</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="P16" s="5">
         <v>4</v>
@@ -19588,12 +19786,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7">
         <v>11</v>
@@ -19632,7 +19830,7 @@
         <v>23018</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="P17" s="5">
         <v>5</v>
@@ -19641,12 +19839,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5">
         <v>12</v>
@@ -19685,7 +19883,7 @@
         <v>23021</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="P18" s="5">
         <v>6</v>
@@ -19694,12 +19892,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C19" s="7">
         <v>13</v>
@@ -19738,7 +19936,7 @@
         <v>23021</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="P19" s="5">
         <v>7</v>
@@ -19747,12 +19945,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7">
         <v>14</v>
@@ -19791,7 +19989,7 @@
         <v>23024</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P20" s="5">
         <v>8</v>
@@ -19800,12 +19998,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5">
         <v>15</v>
@@ -19844,7 +20042,7 @@
         <v>23024</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P21" s="5">
         <v>9</v>
@@ -19853,12 +20051,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C22" s="7">
         <v>16</v>
@@ -19897,7 +20095,7 @@
         <v>23027</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="P22" s="5">
         <v>10</v>
@@ -19906,12 +20104,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C23" s="7">
         <v>17</v>
@@ -19950,7 +20148,7 @@
         <v>23027</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="P23" s="5">
         <v>11</v>
@@ -19959,12 +20157,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C24" s="5">
         <v>18</v>
@@ -20003,7 +20201,7 @@
         <v>23030</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="P24" s="5">
         <v>12</v>
@@ -20012,12 +20210,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="C25" s="7">
         <v>19</v>
@@ -20056,7 +20254,7 @@
         <v>23030</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="P25" s="5">
         <v>13</v>
@@ -20065,12 +20263,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C26" s="5">
         <v>20</v>
@@ -20109,7 +20307,7 @@
         <v>23033</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="P26" s="5">
         <v>14</v>
@@ -20118,12 +20316,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C27" s="7">
         <v>21</v>
@@ -20162,7 +20360,7 @@
         <v>23033</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="P27" s="5">
         <v>15</v>
@@ -20171,12 +20369,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C28" s="5">
         <v>22</v>
@@ -20215,7 +20413,7 @@
         <v>23036</v>
       </c>
       <c r="O28" s="32" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="P28" s="5">
         <v>16</v>
@@ -20224,12 +20422,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C29" s="7">
         <v>23</v>
@@ -20268,7 +20466,7 @@
         <v>23036</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="P29" s="5">
         <v>17</v>
@@ -20277,12 +20475,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C30" s="5">
         <v>24</v>
@@ -20321,7 +20519,7 @@
         <v>23039</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="P30" s="5">
         <v>18</v>
@@ -20330,12 +20528,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C31" s="7">
         <v>25</v>
@@ -20374,7 +20572,7 @@
         <v>23039</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="P31" s="5">
         <v>19</v>
@@ -20383,12 +20581,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C32" s="5">
         <v>26</v>
@@ -20427,7 +20625,7 @@
         <v>23042</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="P32" s="5">
         <v>20</v>
@@ -20436,12 +20634,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C33" s="7">
         <v>27</v>
@@ -20480,7 +20678,7 @@
         <v>23042</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="P33" s="5">
         <v>21</v>
@@ -20489,12 +20687,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C34" s="5">
         <v>28</v>
@@ -20533,7 +20731,7 @@
         <v>23045</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="P34" s="5">
         <v>22</v>
@@ -20542,12 +20740,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C35" s="7">
         <v>29</v>
@@ -20586,7 +20784,7 @@
         <v>23045</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="P35" s="5">
         <v>23</v>
@@ -20595,12 +20793,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>31</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C36" s="5">
         <v>30</v>
@@ -20639,7 +20837,7 @@
         <v>23048</v>
       </c>
       <c r="O36" s="32" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="P36" s="5">
         <v>24</v>
@@ -20648,12 +20846,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>32</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C37" s="7">
         <v>31</v>
@@ -20692,7 +20890,7 @@
         <v>23048</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="P37" s="5">
         <v>25</v>
@@ -20701,12 +20899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>33</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C38" s="5">
         <v>32</v>
@@ -20745,7 +20943,7 @@
         <v>23051</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="P38" s="5">
         <v>26</v>
@@ -20754,12 +20952,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>34</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C39" s="7">
         <v>33</v>
@@ -20798,7 +20996,7 @@
         <v>23051</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="P39" s="5">
         <v>27</v>
@@ -20807,12 +21005,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>35</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C40" s="5">
         <v>34</v>
@@ -20851,7 +21049,7 @@
         <v>23054</v>
       </c>
       <c r="O40" s="32" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="P40" s="5">
         <v>28</v>
@@ -20860,12 +21058,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>36</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C41" s="7">
         <v>35</v>
@@ -20904,7 +21102,7 @@
         <v>23054</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="P41" s="5">
         <v>29</v>
@@ -20913,12 +21111,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>37</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C42" s="5">
         <v>36</v>
@@ -20957,7 +21155,7 @@
         <v>23057</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="P42" s="5">
         <v>30</v>
@@ -20966,12 +21164,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>38</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C43" s="7">
         <v>37</v>
@@ -21010,7 +21208,7 @@
         <v>23057</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="P43" s="5">
         <v>31</v>
@@ -21019,12 +21217,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>39</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C44" s="5">
         <v>38</v>
@@ -21063,7 +21261,7 @@
         <v>23060</v>
       </c>
       <c r="O44" s="32" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="P44" s="5">
         <v>32</v>
@@ -21072,12 +21270,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>40</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="C45" s="7">
         <v>39</v>
@@ -21116,7 +21314,7 @@
         <v>23060</v>
       </c>
       <c r="O45" s="32" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="P45" s="5">
         <v>33</v>
@@ -21125,12 +21323,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>41</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C46" s="7">
         <v>40</v>
@@ -21169,7 +21367,7 @@
         <v>23063</v>
       </c>
       <c r="O46" s="32" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="P46" s="14">
         <v>34</v>
@@ -21178,12 +21376,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>42</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C47" s="5">
         <v>41</v>
@@ -21222,7 +21420,7 @@
         <v>23063</v>
       </c>
       <c r="O47" s="32" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="P47" s="14">
         <v>35</v>
@@ -21231,12 +21429,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>43</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C48" s="7">
         <v>42</v>
@@ -21275,7 +21473,7 @@
         <v>23066</v>
       </c>
       <c r="O48" s="32" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="P48" s="14">
         <v>36</v>
@@ -21284,12 +21482,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>44</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C49" s="7">
         <v>43</v>
@@ -21328,7 +21526,7 @@
         <v>23066</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="P49" s="14">
         <v>37</v>
@@ -21337,12 +21535,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>45</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C50" s="5">
         <v>44</v>
@@ -21381,7 +21579,7 @@
         <v>23069</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="P50" s="14">
         <v>38</v>
@@ -21390,12 +21588,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>46</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C51" s="7">
         <v>45</v>
@@ -21434,7 +21632,7 @@
         <v>23069</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="P51" s="14">
         <v>39</v>
@@ -21443,12 +21641,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>47</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C52" s="7">
         <v>46</v>
@@ -21487,7 +21685,7 @@
         <v>23072</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="P52" s="14">
         <v>40</v>
@@ -21496,12 +21694,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>48</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C53" s="5">
         <v>47</v>
@@ -21540,7 +21738,7 @@
         <v>23072</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="P53" s="14">
         <v>41</v>
@@ -21549,12 +21747,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>49</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C54" s="7">
         <v>48</v>
@@ -21593,7 +21791,7 @@
         <v>23075</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="P54" s="14">
         <v>42</v>
@@ -21602,12 +21800,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>50</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C55" s="7">
         <v>49</v>
@@ -21646,7 +21844,7 @@
         <v>23075</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="P55" s="14">
         <v>43</v>
@@ -21655,12 +21853,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>51</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C56" s="5">
         <v>50</v>
@@ -21699,7 +21897,7 @@
         <v>23078</v>
       </c>
       <c r="O56" s="32" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="P56" s="14">
         <v>44</v>
@@ -21708,12 +21906,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>52</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C57" s="7">
         <v>51</v>
@@ -21752,7 +21950,7 @@
         <v>23078</v>
       </c>
       <c r="O57" s="32" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="P57" s="14">
         <v>45</v>
@@ -21761,12 +21959,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>53</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C58" s="7">
         <v>52</v>
@@ -21805,7 +22003,7 @@
         <v>23081</v>
       </c>
       <c r="O58" s="32" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="P58" s="14">
         <v>46</v>
@@ -21814,12 +22012,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>54</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C59" s="5">
         <v>53</v>
@@ -21858,7 +22056,7 @@
         <v>23081</v>
       </c>
       <c r="O59" s="32" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="P59" s="14">
         <v>47</v>
@@ -21867,12 +22065,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>55</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C60" s="7">
         <v>54</v>
@@ -21911,7 +22109,7 @@
         <v>23084</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="P60" s="14">
         <v>48</v>
@@ -21920,12 +22118,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>56</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C61" s="7">
         <v>55</v>
@@ -21964,7 +22162,7 @@
         <v>23084</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="P61" s="14">
         <v>49</v>
@@ -21973,12 +22171,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>57</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C62" s="5">
         <v>56</v>
@@ -22017,7 +22215,7 @@
         <v>23087</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="P62" s="14">
         <v>50</v>
@@ -22026,12 +22224,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>58</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C63" s="7">
         <v>57</v>
@@ -22070,7 +22268,7 @@
         <v>23087</v>
       </c>
       <c r="O63" s="32" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="P63" s="14">
         <v>51</v>
@@ -22079,12 +22277,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>59</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C64" s="7">
         <v>58</v>
@@ -22123,7 +22321,7 @@
         <v>23090</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="P64" s="14">
         <v>52</v>
@@ -22132,12 +22330,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>60</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C65" s="5">
         <v>59</v>
@@ -22176,7 +22374,7 @@
         <v>23090</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="P65" s="14">
         <v>53</v>
@@ -22185,12 +22383,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>61</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C66" s="7">
         <v>60</v>
@@ -22229,7 +22427,7 @@
         <v>23093</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="P66" s="14">
         <v>54</v>
@@ -22238,12 +22436,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>62</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C67" s="7">
         <v>61</v>
@@ -22282,7 +22480,7 @@
         <v>23093</v>
       </c>
       <c r="O67" s="32" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="P67" s="14">
         <v>55</v>
@@ -22291,12 +22489,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>63</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C68" s="5">
         <v>62</v>
@@ -22335,7 +22533,7 @@
         <v>23096</v>
       </c>
       <c r="O68" s="32" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="P68" s="14">
         <v>56</v>
@@ -22344,12 +22542,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>64</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C69" s="7">
         <v>63</v>
@@ -22388,7 +22586,7 @@
         <v>23096</v>
       </c>
       <c r="O69" s="32" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="P69" s="14">
         <v>57</v>
@@ -22397,12 +22595,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>65</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C70" s="7">
         <v>64</v>
@@ -22441,7 +22639,7 @@
         <v>23099</v>
       </c>
       <c r="O70" s="32" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="P70" s="14">
         <v>58</v>
@@ -22450,12 +22648,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>66</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C71" s="5">
         <v>65</v>
@@ -22494,7 +22692,7 @@
         <v>23099</v>
       </c>
       <c r="O71" s="32" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="P71" s="14">
         <v>59</v>
@@ -22503,12 +22701,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>67</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C72" s="7">
         <v>66</v>
@@ -22547,7 +22745,7 @@
         <v>23102</v>
       </c>
       <c r="O72" s="32" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="P72" s="14">
         <v>60</v>
@@ -22556,12 +22754,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>68</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C73" s="7">
         <v>67</v>
@@ -22600,7 +22798,7 @@
         <v>23102</v>
       </c>
       <c r="O73" s="32" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="P73" s="14">
         <v>61</v>
@@ -22609,12 +22807,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>69</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C74" s="5">
         <v>68</v>
@@ -22653,7 +22851,7 @@
         <v>23105</v>
       </c>
       <c r="O74" s="32" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="P74" s="14">
         <v>62</v>
@@ -22662,12 +22860,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>70</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C75" s="7">
         <v>69</v>
@@ -22706,7 +22904,7 @@
         <v>23105</v>
       </c>
       <c r="O75" s="32" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="P75" s="14">
         <v>63</v>
@@ -22715,12 +22913,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="20">
         <v>71</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C76" s="21">
         <v>70</v>
@@ -22759,7 +22957,7 @@
         <v>23108</v>
       </c>
       <c r="O76" s="32" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="P76" s="2">
         <v>64</v>
@@ -22768,12 +22966,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="20">
         <v>72</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C77" s="21">
         <v>71</v>
@@ -22812,7 +23010,7 @@
         <v>23108</v>
       </c>
       <c r="O77" s="32" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="P77" s="2">
         <v>65</v>
@@ -22821,12 +23019,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="20">
         <v>73</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C78" s="21">
         <v>72</v>
@@ -22865,7 +23063,7 @@
         <v>23111</v>
       </c>
       <c r="O78" s="32" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="P78" s="2">
         <v>66</v>
@@ -22874,12 +23072,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="20">
         <v>74</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C79" s="21">
         <v>73</v>
@@ -22918,7 +23116,7 @@
         <v>23111</v>
       </c>
       <c r="O79" s="32" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="P79" s="2">
         <v>67</v>
@@ -22927,12 +23125,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="20">
         <v>75</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C80" s="21">
         <v>74</v>
@@ -22971,7 +23169,7 @@
         <v>23114</v>
       </c>
       <c r="O80" s="32" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="P80" s="2">
         <v>68</v>
@@ -22980,12 +23178,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="20">
         <v>76</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C81" s="21">
         <v>75</v>
@@ -23024,7 +23222,7 @@
         <v>23114</v>
       </c>
       <c r="O81" s="32" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="P81" s="2">
         <v>69</v>
@@ -23033,12 +23231,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82" s="20">
         <v>77</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C82" s="21">
         <v>76</v>
@@ -23077,7 +23275,7 @@
         <v>23117</v>
       </c>
       <c r="O82" s="32" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="P82" s="2">
         <v>70</v>
@@ -23086,12 +23284,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83" s="20">
         <v>78</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C83" s="21">
         <v>77</v>
@@ -23130,7 +23328,7 @@
         <v>23117</v>
       </c>
       <c r="O83" s="32" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="P83" s="2">
         <v>71</v>
@@ -23139,12 +23337,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84" s="20">
         <v>79</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C84" s="21">
         <v>78</v>
@@ -23183,7 +23381,7 @@
         <v>23120</v>
       </c>
       <c r="O84" s="32" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="P84" s="2">
         <v>72</v>
@@ -23192,12 +23390,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85" s="20">
         <v>80</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C85" s="21">
         <v>79</v>
@@ -23236,7 +23434,7 @@
         <v>23120</v>
       </c>
       <c r="O85" s="32" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="P85" s="2">
         <v>73</v>
@@ -23245,12 +23443,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86" s="20">
         <v>81</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C86" s="21">
         <v>80</v>
@@ -23289,7 +23487,7 @@
         <v>23123</v>
       </c>
       <c r="O86" s="32" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="P86" s="2">
         <v>74</v>
@@ -23298,12 +23496,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87" s="20">
         <v>82</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C87" s="21">
         <v>81</v>
@@ -23342,7 +23540,7 @@
         <v>23123</v>
       </c>
       <c r="O87" s="32" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="P87" s="2">
         <v>75</v>
@@ -23351,12 +23549,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88" s="20">
         <v>83</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C88" s="21">
         <v>82</v>
@@ -23395,7 +23593,7 @@
         <v>23126</v>
       </c>
       <c r="O88" s="32" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="P88" s="2">
         <v>76</v>
@@ -23404,12 +23602,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A89" s="20">
         <v>84</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C89" s="21">
         <v>83</v>
@@ -23448,7 +23646,7 @@
         <v>23126</v>
       </c>
       <c r="O89" s="32" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="P89" s="2">
         <v>77</v>
@@ -23457,12 +23655,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90" s="20">
         <v>85</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C90" s="21">
         <v>84</v>
@@ -23501,7 +23699,7 @@
         <v>23129</v>
       </c>
       <c r="O90" s="32" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="P90" s="2">
         <v>78</v>
@@ -23510,12 +23708,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A91" s="20">
         <v>86</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C91" s="21">
         <v>85</v>
@@ -23554,7 +23752,7 @@
         <v>23129</v>
       </c>
       <c r="O91" s="32" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="P91" s="2">
         <v>79</v>
@@ -23563,12 +23761,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92" s="20">
         <v>87</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C92" s="21">
         <v>86</v>
@@ -23607,7 +23805,7 @@
         <v>23132</v>
       </c>
       <c r="O92" s="32" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="P92" s="2">
         <v>80</v>
@@ -23616,12 +23814,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93" s="20">
         <v>88</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C93" s="21">
         <v>87</v>
@@ -23660,7 +23858,7 @@
         <v>23132</v>
       </c>
       <c r="O93" s="32" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="P93" s="2">
         <v>81</v>
@@ -23669,12 +23867,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A94" s="20">
         <v>89</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C94" s="21">
         <v>88</v>
@@ -23713,7 +23911,7 @@
         <v>23135</v>
       </c>
       <c r="O94" s="32" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="P94" s="2">
         <v>82</v>
@@ -23722,12 +23920,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A95" s="20">
         <v>90</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C95" s="21">
         <v>89</v>
@@ -23766,7 +23964,7 @@
         <v>23135</v>
       </c>
       <c r="O95" s="32" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="P95" s="2">
         <v>83</v>
@@ -23775,12 +23973,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A96" s="20">
         <v>91</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C96" s="21">
         <v>90</v>
@@ -23819,7 +24017,7 @@
         <v>23138</v>
       </c>
       <c r="O96" s="32" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="P96" s="2">
         <v>84</v>
@@ -23828,12 +24026,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A97" s="20">
         <v>92</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C97" s="21">
         <v>91</v>
@@ -23872,7 +24070,7 @@
         <v>23138</v>
       </c>
       <c r="O97" s="32" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="P97" s="2">
         <v>85</v>
@@ -23881,12 +24079,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A98" s="20">
         <v>93</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C98" s="21">
         <v>92</v>
@@ -23925,7 +24123,7 @@
         <v>23141</v>
       </c>
       <c r="O98" s="32" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="P98" s="2">
         <v>86</v>
@@ -23934,12 +24132,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A99" s="20">
         <v>94</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="C99" s="21">
         <v>93</v>
@@ -23978,7 +24176,7 @@
         <v>23141</v>
       </c>
       <c r="O99" s="32" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="P99" s="2">
         <v>87</v>
@@ -23987,12 +24185,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A100" s="20">
         <v>95</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C100" s="21">
         <v>94</v>
@@ -24031,7 +24229,7 @@
         <v>23144</v>
       </c>
       <c r="O100" s="32" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="P100" s="2">
         <v>88</v>
@@ -24040,12 +24238,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A101" s="20">
         <v>96</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C101" s="21">
         <v>95</v>
@@ -24084,7 +24282,7 @@
         <v>23144</v>
       </c>
       <c r="O101" s="32" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="P101" s="2">
         <v>89</v>
@@ -24093,12 +24291,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A102" s="20">
         <v>97</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C102" s="21">
         <v>96</v>
@@ -24137,7 +24335,7 @@
         <v>23147</v>
       </c>
       <c r="O102" s="32" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="P102" s="2">
         <v>90</v>
@@ -24146,12 +24344,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A103" s="20">
         <v>98</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C103" s="21">
         <v>97</v>
@@ -24190,7 +24388,7 @@
         <v>23147</v>
       </c>
       <c r="O103" s="32" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="P103" s="2">
         <v>91</v>
@@ -24199,12 +24397,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A104" s="20">
         <v>99</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C104" s="21">
         <v>98</v>
@@ -24243,7 +24441,7 @@
         <v>23150</v>
       </c>
       <c r="O104" s="32" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="P104" s="2">
         <v>92</v>
@@ -24252,12 +24450,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A105" s="20">
         <v>100</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="C105" s="21">
         <v>99</v>
@@ -24296,7 +24494,7 @@
         <v>23150</v>
       </c>
       <c r="O105" s="32" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="P105" s="2">
         <v>93</v>
@@ -24305,12 +24503,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A106" s="26">
         <v>101</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C106" s="21">
         <v>100</v>
@@ -24349,7 +24547,7 @@
         <v>23153</v>
       </c>
       <c r="O106" s="32" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="P106" s="27">
         <v>94</v>
@@ -24358,12 +24556,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A107" s="26">
         <v>102</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="C107" s="21">
         <v>101</v>
@@ -24402,7 +24600,7 @@
         <v>23153</v>
       </c>
       <c r="O107" s="32" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="P107" s="27">
         <v>95</v>
@@ -24411,12 +24609,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A108" s="26">
         <v>103</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="C108" s="21">
         <v>102</v>
@@ -24455,7 +24653,7 @@
         <v>23156</v>
       </c>
       <c r="O108" s="32" t="s">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="P108" s="27">
         <v>96</v>
@@ -24464,12 +24662,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A109" s="26">
         <v>104</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="C109" s="21">
         <v>103</v>
@@ -24508,7 +24706,7 @@
         <v>23156</v>
       </c>
       <c r="O109" s="32" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="P109" s="27">
         <v>97</v>
@@ -24517,12 +24715,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A110" s="26">
         <v>105</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="C110" s="21">
         <v>104</v>
@@ -24561,7 +24759,7 @@
         <v>23159</v>
       </c>
       <c r="O110" s="32" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="P110" s="27">
         <v>98</v>
@@ -24570,12 +24768,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A111" s="26">
         <v>106</v>
       </c>
       <c r="B111" s="39" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="C111" s="21">
         <v>105</v>
@@ -24614,7 +24812,7 @@
         <v>23159</v>
       </c>
       <c r="O111" s="32" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="P111" s="27">
         <v>99</v>
@@ -24623,12 +24821,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A112" s="26">
         <v>107</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="C112" s="21">
         <v>106</v>
@@ -24667,7 +24865,7 @@
         <v>23162</v>
       </c>
       <c r="O112" s="32" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="P112" s="27">
         <v>100</v>
@@ -24676,12 +24874,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A113" s="26">
         <v>108</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="C113" s="21">
         <v>107</v>
@@ -24720,7 +24918,7 @@
         <v>23162</v>
       </c>
       <c r="O113" s="32" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="P113" s="27">
         <v>101</v>
@@ -24729,12 +24927,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A114" s="26">
         <v>109</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="C114" s="21">
         <v>108</v>
@@ -24773,7 +24971,7 @@
         <v>23165</v>
       </c>
       <c r="O114" s="32" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="P114" s="27">
         <v>102</v>
@@ -24782,12 +24980,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A115" s="26">
         <v>110</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C115" s="21">
         <v>109</v>
@@ -24826,7 +25024,7 @@
         <v>23165</v>
       </c>
       <c r="O115" s="32" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="P115" s="27">
         <v>103</v>
@@ -24835,12 +25033,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A116" s="26">
         <v>111</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="C116" s="21">
         <v>110</v>
@@ -24879,7 +25077,7 @@
         <v>23168</v>
       </c>
       <c r="O116" s="32" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="P116" s="27">
         <v>104</v>
@@ -24888,12 +25086,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A117" s="26">
         <v>112</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="C117" s="21">
         <v>111</v>
@@ -24932,7 +25130,7 @@
         <v>23168</v>
       </c>
       <c r="O117" s="32" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="P117" s="27">
         <v>105</v>
@@ -24941,12 +25139,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A118" s="26">
         <v>113</v>
       </c>
       <c r="B118" s="41" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="C118" s="21">
         <v>112</v>
@@ -24985,7 +25183,7 @@
         <v>23171</v>
       </c>
       <c r="O118" s="32" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="P118" s="27">
         <v>106</v>
@@ -24994,12 +25192,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A119" s="26">
         <v>114</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="C119" s="21">
         <v>113</v>
@@ -25038,7 +25236,7 @@
         <v>23171</v>
       </c>
       <c r="O119" s="32" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="P119" s="27">
         <v>107</v>
@@ -25047,12 +25245,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A120" s="26">
         <v>115</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="C120" s="21">
         <v>114</v>
@@ -25091,7 +25289,7 @@
         <v>23174</v>
       </c>
       <c r="O120" s="32" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="P120" s="27">
         <v>108</v>
@@ -25100,12 +25298,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A121" s="26">
         <v>116</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C121" s="21">
         <v>115</v>
@@ -25144,7 +25342,7 @@
         <v>23174</v>
       </c>
       <c r="O121" s="32" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="P121" s="27">
         <v>109</v>
@@ -25153,12 +25351,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A122" s="26">
         <v>117</v>
       </c>
       <c r="B122" s="42" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="C122" s="21">
         <v>116</v>
@@ -25197,7 +25395,7 @@
         <v>23177</v>
       </c>
       <c r="O122" s="32" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="P122" s="27">
         <v>110</v>
@@ -25206,12 +25404,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A123" s="26">
         <v>118</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C123" s="21">
         <v>117</v>
@@ -25250,7 +25448,7 @@
         <v>23177</v>
       </c>
       <c r="O123" s="32" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="P123" s="27">
         <v>111</v>
@@ -25259,12 +25457,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A124" s="26">
         <v>119</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="C124" s="21">
         <v>118</v>
@@ -25303,7 +25501,7 @@
         <v>23180</v>
       </c>
       <c r="O124" s="32" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="P124" s="27">
         <v>112</v>
@@ -25312,12 +25510,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A125" s="26">
         <v>120</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C125" s="21">
         <v>119</v>
@@ -25356,7 +25554,7 @@
         <v>23180</v>
       </c>
       <c r="O125" s="32" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="P125" s="27">
         <v>113</v>
@@ -25365,12 +25563,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A126" s="26">
         <v>121</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="C126" s="21">
         <v>120</v>
@@ -25409,7 +25607,7 @@
         <v>23183</v>
       </c>
       <c r="O126" s="32" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="P126" s="27">
         <v>114</v>
@@ -25418,12 +25616,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A127" s="22">
         <v>122</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C127" s="23">
         <v>121</v>
@@ -25471,109 +25669,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B128" s="13"/>
       <c r="C128" s="2"/>
       <c r="H128" s="56"/>
     </row>
-    <row r="129" spans="2:8">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="2:8">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B130" s="13"/>
       <c r="C130" s="2"/>
       <c r="H130" s="56"/>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B131" s="13"/>
       <c r="C131" s="2"/>
       <c r="H131" s="56"/>
     </row>
-    <row r="132" spans="2:8">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B132" s="13"/>
       <c r="C132" s="2"/>
       <c r="H132" s="56"/>
     </row>
-    <row r="133" spans="2:8">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B134" s="13"/>
       <c r="C134" s="2"/>
       <c r="H134" s="56"/>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B135" s="13"/>
       <c r="C135" s="2"/>
       <c r="H135" s="56"/>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B137" s="13"/>
       <c r="C137" s="2"/>
       <c r="H137" s="56"/>
     </row>
-    <row r="138" spans="2:8">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="2:8">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B139" s="13"/>
       <c r="C139" s="2"/>
       <c r="H139" s="56"/>
     </row>
-    <row r="140" spans="2:8">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B140" s="13"/>
       <c r="C140" s="2"/>
       <c r="H140" s="56"/>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="2:8">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="2:8">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="2:8">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="2:8">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="2:8">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C147" s="2"/>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C149" s="8"/>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B151" s="13"/>
       <c r="C151" s="2"/>
       <c r="H151" s="56"/>
     </row>
-    <row r="153" spans="2:8">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B153" s="13"/>
       <c r="C153" s="2"/>
       <c r="H153" s="56"/>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B154" s="13"/>
       <c r="C154" s="2"/>
       <c r="H154" s="56"/>
     </row>
-    <row r="155" spans="2:8">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="2:8">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C158" s="2"/>
     </row>
   </sheetData>
@@ -25606,21 +25804,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="27">
+    <row r="2" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>34</v>
       </c>
@@ -25631,7 +25829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="17">
         <v>1</v>
       </c>
@@ -25642,7 +25840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="17">
         <v>5</v>
       </c>
@@ -25653,7 +25851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="17">
         <v>6</v>
       </c>
@@ -25664,7 +25862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="17">
         <v>11</v>
       </c>
@@ -25675,7 +25873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="18">
         <v>1</v>
       </c>
@@ -25686,7 +25884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="18">
         <v>4</v>
       </c>
@@ -25697,7 +25895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="18">
         <v>5</v>
       </c>
@@ -25708,7 +25906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="18">
         <v>6</v>
       </c>
@@ -25719,7 +25917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="18">
         <v>7</v>
       </c>
@@ -25730,7 +25928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="18">
         <v>8</v>
       </c>
@@ -25741,7 +25939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="18">
         <v>10</v>
       </c>
@@ -25752,7 +25950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
         <v>11</v>
       </c>
@@ -25763,7 +25961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
         <v>12</v>
       </c>
@@ -25774,7 +25972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="18">
         <v>13</v>
       </c>
